--- a/timings.xlsx
+++ b/timings.xlsx
@@ -1,25 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-london\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA47593-643E-425A-992A-B4F52EC28A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-25693" yWindow="-73" windowWidth="25786" windowHeight="13373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Data analytics stack</t>
+  </si>
+  <si>
+    <t>R demo 1</t>
+  </si>
+  <si>
+    <t>Python demo 1</t>
+  </si>
+  <si>
+    <t>Python demo 2</t>
+  </si>
+  <si>
+    <t>R demo 2</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +78,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +123,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31801C02-D634-45CE-ADF2-61CD73D9A185}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowCount="1">
+  <autoFilter ref="A1:B8" xr:uid="{275C7657-3B5C-4E40-963C-6AF890272DC5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{34E0C8DF-E41A-4E0C-987D-B654798F2907}" name="Part" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{44E80F5C-9EBF-454E-B05A-87650D6A3E92}" name="Time" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +398,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.26171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f>SUBTOTAL(109,Table1[Time])</f>
+        <v>44.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>